--- a/qqq_qld_return.xlsx
+++ b/qqq_qld_return.xlsx
@@ -1,43 +1,408 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="21600" windowHeight="9480"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>holding_years</t>
+  </si>
+  <si>
+    <t>qqq_return</t>
+  </si>
+  <si>
+    <t>qld_return</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -46,93 +411,333 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -415,141 +1020,137 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="14.4285714285714" customWidth="1"/>
+    <col min="2" max="3" width="12.8571428571429" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>holding_years</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>qqq_return</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>qld_return</t>
-        </is>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.1704938212856408</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3200841419122131</v>
+      <c r="B2" s="1">
+        <v>0.170493821285641</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.320084141912213</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.3014333642666793</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5732269841423028</v>
+      <c r="B3" s="1">
+        <v>0.301433364266679</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.573226984142303</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="1">
         <v>0.517408704046133</v>
       </c>
-      <c r="C4" t="n">
-        <v>1.068050724149654</v>
+      <c r="C4" s="1">
+        <v>1.06805072414965</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:3">
+      <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" t="n">
-        <v>1.008892813158608</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" s="1">
+        <v>1.00889281315861</v>
+      </c>
+      <c r="C5" s="1">
         <v>2.22070817708846</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:3">
+      <c r="A6">
         <v>10</v>
       </c>
-      <c r="B6" t="n">
-        <v>2.588452448417378</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4.332925451231081</v>
+      <c r="B6" s="1">
+        <v>2.58845244841738</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.33292545123108</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:3">
+      <c r="A7">
         <v>15</v>
       </c>
-      <c r="B7" t="n">
-        <v>4.680969984686971</v>
-      </c>
-      <c r="C7" t="n">
-        <v>8.712598350056753</v>
+      <c r="B7" s="1">
+        <v>4.68096998468697</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8.71259835005675</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:3">
+      <c r="A8">
         <v>20</v>
       </c>
-      <c r="B8" t="n">
-        <v>7.590608129125847</v>
-      </c>
-      <c r="C8" t="n">
-        <v>11.57277396707017</v>
+      <c r="B8" s="1">
+        <v>7.59060812912585</v>
+      </c>
+      <c r="C8" s="1">
+        <v>11.5727739670702</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:3">
+      <c r="A9">
         <v>25</v>
       </c>
-      <c r="B9" t="n">
-        <v>16.68545660414517</v>
-      </c>
-      <c r="C9" t="n">
-        <v>42.13431283394819</v>
+      <c r="B9" s="1">
+        <v>16.6854566041452</v>
+      </c>
+      <c r="C9" s="1">
+        <v>42.1343128339482</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:3">
+      <c r="A10">
         <v>30</v>
       </c>
-      <c r="B10" t="n">
-        <v>38.38820468664063</v>
-      </c>
-      <c r="C10" t="n">
-        <v>177.7129043460377</v>
+      <c r="B10" s="1">
+        <v>38.3882046866406</v>
+      </c>
+      <c r="C10" s="1">
+        <v>177.712904346038</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/qqq_qld_return.xlsx
+++ b/qqq_qld_return.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9480"/>
+    <workbookView windowWidth="19200" windowHeight="6080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>holding_years</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>qld_return</t>
+  </si>
+  <si>
+    <t>tqqq_return</t>
   </si>
 </sst>
 </file>
@@ -673,11 +676,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -688,7 +691,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -1026,20 +1029,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.4285714285714" customWidth="1"/>
-    <col min="2" max="3" width="12.8571428571429" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
+    <col min="1" max="1" width="13.6363636363636" customWidth="1"/>
+    <col min="2" max="4" width="12.8181818181818" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1049,104 +1051,134 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.170493821285641</v>
+        <v>0.172725464013983</v>
       </c>
       <c r="C2" s="1">
-        <v>0.320084141912213</v>
+        <v>0.32380718115198</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.438057065078531</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>0.301433364266679</v>
+        <v>0.312276012629918</v>
       </c>
       <c r="C3" s="1">
-        <v>0.573226984142303</v>
+        <v>0.593909113633052</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.797561756343892</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>0.517408704046133</v>
+        <v>0.51889597120594</v>
       </c>
       <c r="C4" s="1">
-        <v>1.06805072414965</v>
+        <v>1.06809994620302</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.51658129584604</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>1.00889281315861</v>
+        <v>1.03148385529191</v>
       </c>
       <c r="C5" s="1">
-        <v>2.22070817708846</v>
+        <v>2.29321491486981</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.28179609241294</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>2.58845244841738</v>
+        <v>2.69324169105462</v>
       </c>
       <c r="C6" s="1">
-        <v>4.33292545123108</v>
+        <v>4.62879679790476</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4.83020106621927</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>15</v>
       </c>
       <c r="B7" s="1">
-        <v>4.68096998468697</v>
+        <v>4.8228797429133</v>
       </c>
       <c r="C7" s="1">
-        <v>8.71259835005675</v>
+        <v>9.33449855580181</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.91128496484833</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>20</v>
       </c>
       <c r="B8" s="1">
-        <v>7.59060812912585</v>
+        <v>7.79636739815915</v>
       </c>
       <c r="C8" s="1">
-        <v>11.5727739670702</v>
+        <v>12.2610603510839</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.19263625022717</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>25</v>
       </c>
       <c r="B9" s="1">
-        <v>16.6854566041452</v>
+        <v>16.2575243960344</v>
       </c>
       <c r="C9" s="1">
-        <v>42.1343128339482</v>
+        <v>40.5537579139876</v>
+      </c>
+      <c r="D9" s="1">
+        <v>12.5325406536171</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>30</v>
       </c>
       <c r="B10" s="1">
-        <v>38.3882046866406</v>
+        <v>39.1502108778063</v>
       </c>
       <c r="C10" s="1">
-        <v>177.712904346038</v>
+        <v>179.093558135726</v>
+      </c>
+      <c r="D10" s="1">
+        <v>84.8793314679889</v>
       </c>
     </row>
   </sheetData>
